--- a/Doc/通讯协议.xlsx
+++ b/Doc/通讯协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080"/>
+    <workbookView windowHeight="16785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>主控与stm32扩展板串口通讯协议</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>LED闪烁</t>
+  </si>
+  <si>
+    <t>设置自动扫描</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0关闭   1开启        默认关闭</t>
   </si>
   <si>
     <t>小车运动控制</t>
@@ -177,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -248,22 +257,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,41 +334,55 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,67 +393,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -406,61 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,121 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,17 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +778,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,145 +797,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1333,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1653,18 +1662,28 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A16" s="13"/>
+    <row r="16" s="2" customFormat="1" ht="60.75" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
@@ -1685,7 +1704,7 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="20.25" spans="1:9">
       <c r="A18" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>14</v>
@@ -1694,16 +1713,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" s="14">
         <v>61</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>19</v>
@@ -1727,7 +1746,7 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="20.25" spans="1:9">
       <c r="A20" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>14</v>
@@ -1779,7 +1798,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="21" spans="1:9">
       <c r="A24" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -1792,7 +1811,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.25" spans="1:9">
       <c r="A25" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>14</v>
@@ -1807,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>19</v>
@@ -1817,7 +1836,7 @@
     </row>
     <row r="26" ht="20.25" spans="1:9">
       <c r="A26" s="21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>14</v>
@@ -1826,16 +1845,16 @@
         <v>15</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>19</v>
@@ -1844,7 +1863,7 @@
     </row>
     <row r="27" ht="20.25" spans="1:10">
       <c r="A27" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>14</v>
@@ -1853,22 +1872,22 @@
         <v>15</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>19</v>
@@ -1876,7 +1895,7 @@
     </row>
     <row r="28" ht="20.25" spans="1:11">
       <c r="A28" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>14</v>
@@ -1885,28 +1904,28 @@
         <v>15</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="1:9">

--- a/Doc/通讯协议.xlsx
+++ b/Doc/通讯协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16785"/>
+    <workbookView windowWidth="21540" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>主控与stm32扩展板串口通讯协议</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>收到数据后除以10</t>
+  </si>
+  <si>
+    <t>精度不够，废除</t>
   </si>
 </sst>
 </file>
@@ -186,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -251,7 +254,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +282,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -273,31 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,28 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -341,6 +382,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -348,53 +396,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,187 +418,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,11 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +752,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -751,198 +807,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1024,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,6 +1041,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1342,8 +1369,8 @@
   <sheetPr/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1381,7 +1408,7 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1401,7 +1428,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1421,7 +1448,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1445,19 +1472,19 @@
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="8"/>
@@ -1497,10 +1524,10 @@
       <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="14"/>
@@ -1541,7 +1568,7 @@
       <c r="E9" s="14">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="14"/>
@@ -1579,7 +1606,7 @@
       <c r="E11" s="14">
         <v>21</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="14"/>
@@ -1602,7 +1629,7 @@
       <c r="E12" s="14">
         <v>22</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="14"/>
@@ -1625,7 +1652,7 @@
       <c r="E13" s="14">
         <v>23</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="14"/>
@@ -1678,10 +1705,10 @@
       <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="14"/>
@@ -1724,7 +1751,7 @@
       <c r="G18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="14"/>
@@ -1828,7 +1855,7 @@
       <c r="F25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="14"/>
@@ -1856,7 +1883,7 @@
       <c r="G26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="4"/>
@@ -1889,43 +1916,46 @@
       <c r="I27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" ht="20.25" spans="1:11">
-      <c r="A28" s="21" t="s">
+    <row r="28" ht="20.25" spans="1:12">
+      <c r="A28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="29" t="s">
         <v>54</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="1:9">
